--- a/output/fit_clients/fit_round_400.xlsx
+++ b/output/fit_clients/fit_round_400.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1810459486.21106</v>
+        <v>2053538553.308717</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09556367187054544</v>
+        <v>0.07597397520744392</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03969524415098003</v>
+        <v>0.03892902922587393</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>905229713.257274</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2247976845.210857</v>
+        <v>2418561395.757347</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1699289189209721</v>
+        <v>0.1344526137482168</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04524720346301325</v>
+        <v>0.04100546442429412</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1123988501.087739</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4537628783.702529</v>
+        <v>3241409752.555967</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1332054518455522</v>
+        <v>0.1359284373046372</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03153518388711311</v>
+        <v>0.02429839990338803</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>144</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2268814444.132392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3576536438.547074</v>
+        <v>3872605154.649394</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1021290396750223</v>
+        <v>0.07935296053712754</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03803563962726043</v>
+        <v>0.04403910713291392</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>149</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1788268250.971704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2483435589.880112</v>
+        <v>1844117154.627847</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1044234103853991</v>
+        <v>0.1287628719704514</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03543507110316615</v>
+        <v>0.04583447839429632</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1241717772.229929</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2348365896.798896</v>
+        <v>2484687616.962727</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08086843281188935</v>
+        <v>0.09740424137662609</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03017970971687748</v>
+        <v>0.03080733525253769</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>126</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1174182976.005465</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2956784660.94751</v>
+        <v>2479377605.444279</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2034409968327777</v>
+        <v>0.2116115544161516</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03154568147752457</v>
+        <v>0.02389904651748903</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>128</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1478392383.583046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2140808701.607545</v>
+        <v>2141120769.298236</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1948275713799731</v>
+        <v>0.1216681718269087</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02257230992180441</v>
+        <v>0.02889956135992195</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1070404357.894668</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4808894232.586987</v>
+        <v>5758217384.555395</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1687428653587063</v>
+        <v>0.1914819890098682</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04863878843447958</v>
+        <v>0.03998444787711072</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>168</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2404447200.826871</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4246747626.332017</v>
+        <v>3171770238.406409</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1310893956302605</v>
+        <v>0.1437135658860561</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03910253234232691</v>
+        <v>0.04979221938964312</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>165</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2123373843.103376</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2483826559.56536</v>
+        <v>3143576621.694545</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1320955092201673</v>
+        <v>0.1573751297386779</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05012115952737788</v>
+        <v>0.0418510360921512</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>135</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1241913250.527049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4423450270.371173</v>
+        <v>3417720089.879506</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06166735351573785</v>
+        <v>0.0906280913276057</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01933058313788471</v>
+        <v>0.02781040535545021</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>134</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2211725168.61891</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3368181759.408757</v>
+        <v>3563318980.814755</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1341163910383917</v>
+        <v>0.1618092445579885</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04405298013558757</v>
+        <v>0.04371530878105973</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>129</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1684090887.496869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1205162349.100303</v>
+        <v>1218168535.046055</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07079410888861816</v>
+        <v>0.07374570568599134</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0359978670991565</v>
+        <v>0.03151541306786617</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>602581193.2263175</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2071257183.13031</v>
+        <v>2739710622.171104</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07743955543179587</v>
+        <v>0.08292400497054048</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03373729147808287</v>
+        <v>0.04321533831695303</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1035628660.697143</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4895002591.33181</v>
+        <v>5246855725.032866</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1573954810028622</v>
+        <v>0.1396603286509701</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04484939766831393</v>
+        <v>0.05293476700682739</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>117</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2447501285.997764</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3960846832.512001</v>
+        <v>2802818803.042257</v>
       </c>
       <c r="F18" t="n">
-        <v>0.173491293485665</v>
+        <v>0.1629000333057469</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02440660130217693</v>
+        <v>0.03322266244863917</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>131</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1980423376.961348</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>972609038.6497407</v>
+        <v>974758192.4409813</v>
       </c>
       <c r="F19" t="n">
-        <v>0.167913467381806</v>
+        <v>0.1177013314735582</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01691940718069756</v>
+        <v>0.02129135489223302</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>486304541.9454705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2741323692.667614</v>
+        <v>2674071082.455288</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1294796669481877</v>
+        <v>0.1613798058119781</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02597301511434807</v>
+        <v>0.01932986242886506</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1370661793.735352</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1965444893.672987</v>
+        <v>2096227123.637696</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08955160325759055</v>
+        <v>0.09192295394315778</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03046056856864456</v>
+        <v>0.03592639881265104</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>982722486.0847329</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3733824245.612022</v>
+        <v>3236342224.483104</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1387654800539523</v>
+        <v>0.1100913842545294</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03967979183819791</v>
+        <v>0.04841040474373066</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1866912140.411232</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>996024342.8305762</v>
+        <v>1456920412.727762</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1154250588964399</v>
+        <v>0.1485681277798179</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04323440611687082</v>
+        <v>0.04860675906022276</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>498012242.3026289</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3377362485.376084</v>
+        <v>2846873788.778364</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1326686723810709</v>
+        <v>0.1342031670349507</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03152138165476006</v>
+        <v>0.0233607163900658</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>116</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1688681252.567768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1103097972.692476</v>
+        <v>1241721499.337246</v>
       </c>
       <c r="F25" t="n">
-        <v>0.12011361264974</v>
+        <v>0.1162384580618462</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03070222732870233</v>
+        <v>0.03034347826655557</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>551549026.6274248</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>898708692.172585</v>
+        <v>1254880067.705645</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1022956998008301</v>
+        <v>0.1225412257786966</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03434948357788212</v>
+        <v>0.03048509255205236</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>449354293.4439809</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4599874358.837917</v>
+        <v>3760717518.954001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1056440052474918</v>
+        <v>0.1355657195860028</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01974895379410414</v>
+        <v>0.01927420653144265</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2299937159.775836</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3363108197.242407</v>
+        <v>3551740396.574168</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09384718988442253</v>
+        <v>0.09543217784067777</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0363826552171532</v>
+        <v>0.03495708152875518</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>130</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1681554141.363965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4935263151.649219</v>
+        <v>5297272287.003685</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1517877601918004</v>
+        <v>0.1361219563718073</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03357080245619772</v>
+        <v>0.04411506628221377</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>176</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2467631527.888896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2053563177.191049</v>
+        <v>1784249615.398424</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1128006112025116</v>
+        <v>0.08795055198854468</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03853249563281016</v>
+        <v>0.03392737490690936</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1026781632.144841</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>965137084.3320272</v>
+        <v>937290907.586912</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09066227981506376</v>
+        <v>0.09520333166076339</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04885663729136692</v>
+        <v>0.038676980774102</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>482568548.9250109</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1625631337.77231</v>
+        <v>1465387573.521056</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09638984460360331</v>
+        <v>0.08362461719249496</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03592631990457188</v>
+        <v>0.02860587167002364</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>812815763.2535169</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2291027437.919813</v>
+        <v>2315749197.850205</v>
       </c>
       <c r="F33" t="n">
-        <v>0.168161890249689</v>
+        <v>0.1454522467680712</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03874256394930642</v>
+        <v>0.0522657356042879</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>118</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1145513775.002171</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1428172948.547757</v>
+        <v>1144158294.646841</v>
       </c>
       <c r="F34" t="n">
-        <v>0.086131031833383</v>
+        <v>0.09185975694694608</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0213782028783209</v>
+        <v>0.02424458880884378</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>714086441.8948375</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>972144565.0189193</v>
+        <v>982337892.4316814</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09936985206765249</v>
+        <v>0.09211688080230468</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04219417904402432</v>
+        <v>0.03644192277986689</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>486072307.2105252</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3143769957.008291</v>
+        <v>2615579600.828308</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1284334207260467</v>
+        <v>0.1534214697027194</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0265360613163601</v>
+        <v>0.02348680607562472</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1571884948.893773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2060353219.207224</v>
+        <v>2456989393.284176</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07931436390385264</v>
+        <v>0.09417346447029547</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0265617610929172</v>
+        <v>0.03170634328214419</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>107</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1030176645.208977</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1851633486.760026</v>
+        <v>1610315105.288015</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08270168975505685</v>
+        <v>0.09890318505073832</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02909846417239828</v>
+        <v>0.03467018183848051</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>925816742.9797815</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1462008385.99023</v>
+        <v>1654195082.82957</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1439984747373788</v>
+        <v>0.1345660335863196</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02206983101252596</v>
+        <v>0.030578013036516</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>731004269.1970881</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1571615657.18134</v>
+        <v>1309487770.148918</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1200567502988247</v>
+        <v>0.1294969342185869</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04016387545867818</v>
+        <v>0.05827906286177306</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>785807776.8798913</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2195518140.066623</v>
+        <v>2127756579.69717</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1577382587379114</v>
+        <v>0.1024742688526241</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03700348547658263</v>
+        <v>0.04061096049473992</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>102</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1097759125.096691</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2797254324.568395</v>
+        <v>3156245258.311281</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1142792856579237</v>
+        <v>0.09956737182509015</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0403038464849227</v>
+        <v>0.03774974674007905</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1398627108.786809</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2344663800.986337</v>
+        <v>2683833433.066256</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1376312587088861</v>
+        <v>0.195803400085462</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02072933114304482</v>
+        <v>0.02235064180342054</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>139</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1172331964.79202</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1720729167.81895</v>
+        <v>2136225479.935194</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07084025165850544</v>
+        <v>0.06786848085521881</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0309231833745197</v>
+        <v>0.02998626260903751</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>860364634.5408137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1810375224.809321</v>
+        <v>1985207647.817487</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1511444074181464</v>
+        <v>0.1431233375728342</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05294595823581494</v>
+        <v>0.03893486270155481</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>905187584.1768541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4182087944.995072</v>
+        <v>4684719269.720134</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1143367577510497</v>
+        <v>0.1645217788929771</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04373750499246504</v>
+        <v>0.0574873854938884</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>142</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2091043952.480279</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5056707899.854068</v>
+        <v>4449769828.281151</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1885981089981658</v>
+        <v>0.1381430878097034</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03905044117939046</v>
+        <v>0.05832608506150832</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>108</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2528354008.992967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4068144900.251979</v>
+        <v>3897812480.947629</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0749743387759062</v>
+        <v>0.08295950687962203</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0300953853139854</v>
+        <v>0.03205446214120855</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2034072480.578912</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1612119322.129688</v>
+        <v>1510956138.559629</v>
       </c>
       <c r="F49" t="n">
-        <v>0.152245705948948</v>
+        <v>0.1531653449438514</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04439146142855172</v>
+        <v>0.04332855330082219</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>806059675.6733851</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3924757071.919873</v>
+        <v>3043611509.197505</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1617094275217571</v>
+        <v>0.1269710697174647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03375136406106661</v>
+        <v>0.05160414418199011</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>137</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1962378530.018328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1509001429.375253</v>
+        <v>1443742685.224073</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1681285418678316</v>
+        <v>0.1927285408258179</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04868057162916069</v>
+        <v>0.04488341384108695</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>754500716.1652318</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4004410117.524827</v>
+        <v>3906624475.309897</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1168725609618185</v>
+        <v>0.1164532415998874</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04786478020583559</v>
+        <v>0.05096615151964765</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>164</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2002205114.995862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2772065302.630121</v>
+        <v>2520256482.01973</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1513065362923374</v>
+        <v>0.126453800801141</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02204409839792033</v>
+        <v>0.02372934005872563</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1386032699.532354</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4241124766.356424</v>
+        <v>4795609359.412621</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1216694506067167</v>
+        <v>0.1293698521599213</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04379728612293848</v>
+        <v>0.03757811182740036</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>129</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2120562466.208698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3256368640.29666</v>
+        <v>3778410976.217751</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1715954308354002</v>
+        <v>0.1834905685716361</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02357069172256528</v>
+        <v>0.0199482302636317</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1628184262.279778</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1458881143.877256</v>
+        <v>1253531537.909332</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1301536638615152</v>
+        <v>0.1131308791912796</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04526108417812438</v>
+        <v>0.05828300514449702</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>729440620.3004944</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2836017751.662393</v>
+        <v>3319772054.878222</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1286994241570266</v>
+        <v>0.1738258272865049</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01985582713931321</v>
+        <v>0.02307241376382401</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>127</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1418008866.481609</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1630385139.460578</v>
+        <v>1246800345.859376</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1783658847922005</v>
+        <v>0.1764784422782685</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0261250636454909</v>
+        <v>0.03291673821704558</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>815192588.9835131</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4104845389.353648</v>
+        <v>4478537428.355104</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08070921278058878</v>
+        <v>0.1114320276134153</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04301103371324505</v>
+        <v>0.03287925134059638</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2052422665.591773</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2346217058.974547</v>
+        <v>2917261336.958434</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1749528113796872</v>
+        <v>0.1799473853206206</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02100353615889189</v>
+        <v>0.02423653093199836</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>124</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1173108531.275774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2918718211.451066</v>
+        <v>3328350113.969383</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1472480952251219</v>
+        <v>0.1656428766003744</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03123296980644246</v>
+        <v>0.0210547681822643</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>137</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1459359093.872065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1306591111.979891</v>
+        <v>2024155255.597646</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1840424013499644</v>
+        <v>0.1559356047489122</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03857536397370861</v>
+        <v>0.03777815025380045</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>653295510.0460467</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4774281029.320567</v>
+        <v>4583736968.624332</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0963959733452118</v>
+        <v>0.06798248703780467</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03687151243181114</v>
+        <v>0.03915388701857264</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>117</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2387140542.498067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3788787321.376767</v>
+        <v>3411382890.957046</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1178082786901689</v>
+        <v>0.1663379014493729</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03211061672022088</v>
+        <v>0.03336779578036741</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>124</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1894393681.708577</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4598277970.842588</v>
+        <v>5006581404.52799</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1383289013955354</v>
+        <v>0.1699884572565998</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03166435000723594</v>
+        <v>0.03233329977652211</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>143</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2299138968.322859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4207917085.903194</v>
+        <v>5427406107.139651</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1259022378734472</v>
+        <v>0.1389486877474895</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04472264116375756</v>
+        <v>0.04029372072211881</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>117</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2103958527.670806</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3396419908.958656</v>
+        <v>2136148821.597165</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06426074309033014</v>
+        <v>0.09726060430629972</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03952094829385477</v>
+        <v>0.03451101944142752</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>128</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1698209939.214453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6007055786.255015</v>
+        <v>5085724812.860135</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1162773216604068</v>
+        <v>0.1548774945583259</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04318326953471811</v>
+        <v>0.03468708207391759</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>127</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3003528010.551948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2340957970.727885</v>
+        <v>1935653834.625662</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1684549364398537</v>
+        <v>0.1779344548239795</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03916076504602136</v>
+        <v>0.04242927330976015</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1170479034.443755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2252434613.017914</v>
+        <v>3641211252.373038</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09915714559855433</v>
+        <v>0.08053434870075396</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03493973192568061</v>
+        <v>0.04504987018474944</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>114</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1126217234.871804</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4145969680.350255</v>
+        <v>4051284837.246581</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1829673585106201</v>
+        <v>0.1595595043332164</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03380605609523318</v>
+        <v>0.02566760495183735</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>145</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2072984882.123419</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1531625579.136892</v>
+        <v>2074673200.757222</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07170339860695416</v>
+        <v>0.08155331382917708</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04875193543603994</v>
+        <v>0.04068758368764201</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>765812811.4367799</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3341925678.209079</v>
+        <v>2376592405.995054</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0838962687501302</v>
+        <v>0.08595848371727545</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03642538306264176</v>
+        <v>0.04395736776732342</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>152</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1670962803.790648</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2912552416.73219</v>
+        <v>3463853534.54353</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1671565664076785</v>
+        <v>0.1702419361328916</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02831267496565321</v>
+        <v>0.033571418671268</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>135</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1456276281.337692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1820875985.821789</v>
+        <v>1879944095.904347</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1040176644026854</v>
+        <v>0.1519825009752707</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02758039286144809</v>
+        <v>0.02810321580659771</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>910437973.8512195</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4467702495.511785</v>
+        <v>4863013838.414981</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09489606732670876</v>
+        <v>0.1111814264135553</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03053989713584745</v>
+        <v>0.02311638954001323</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2233851252.099258</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1593469276.515328</v>
+        <v>1678153713.917161</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1497144114569843</v>
+        <v>0.1333463390545682</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02576342643019247</v>
+        <v>0.02794351020941926</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>796734639.7232054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3643602085.672171</v>
+        <v>3543415220.275793</v>
       </c>
       <c r="F78" t="n">
-        <v>0.124220761664989</v>
+        <v>0.09257593381297631</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03540763808912547</v>
+        <v>0.03599136439138719</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>139</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1821801034.06772</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1208381084.620817</v>
+        <v>1740506513.16606</v>
       </c>
       <c r="F79" t="n">
-        <v>0.135705532661085</v>
+        <v>0.1764255555733697</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03766398824248442</v>
+        <v>0.03927668959076407</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>604190525.5189224</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5505616291.400198</v>
+        <v>4485971568.468669</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1051134977956143</v>
+        <v>0.09709933991251948</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03439496541096478</v>
+        <v>0.02584890325665781</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2752808220.071216</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3458887349.891414</v>
+        <v>4633450211.077089</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09865160871845408</v>
+        <v>0.08494973475301085</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02430796433572685</v>
+        <v>0.0275402271149585</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1729443618.080544</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5538667302.233101</v>
+        <v>4988960060.809353</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1994228604122565</v>
+        <v>0.162119215069284</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02495177388503371</v>
+        <v>0.02204147472846999</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>139</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2769333605.004053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1733228286.701838</v>
+        <v>2399846693.828674</v>
       </c>
       <c r="F83" t="n">
-        <v>0.143469190572735</v>
+        <v>0.1340498341914056</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04411349282681799</v>
+        <v>0.04113836147472502</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>866614095.4424208</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1630615590.19414</v>
+        <v>1989363100.333128</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08489248668245744</v>
+        <v>0.1105649526452875</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04685619491374538</v>
+        <v>0.03840812219703905</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>815307854.1866226</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3153774095.297593</v>
+        <v>2802304953.175702</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1134510766093247</v>
+        <v>0.1232701895492419</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03908591016197245</v>
+        <v>0.04559443963637789</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>151</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1576887124.792467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2206370538.984151</v>
+        <v>2505439036.507305</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1522140466143117</v>
+        <v>0.142095072446398</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02226533721595877</v>
+        <v>0.01983018318701096</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1103185325.816823</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1007649505.442311</v>
+        <v>1485805322.655931</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1495469228983341</v>
+        <v>0.1599794231754418</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03142507571496618</v>
+        <v>0.04407789020541299</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>503824759.0412478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3339264653.486822</v>
+        <v>3714168891.472112</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1456742883781275</v>
+        <v>0.1525828122601238</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0284250064454534</v>
+        <v>0.03948363061726412</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>158</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1669632390.747194</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2178659359.315502</v>
+        <v>2936920171.924478</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1036906432142602</v>
+        <v>0.1125994039498953</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03758536146505455</v>
+        <v>0.03688101870391841</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>134</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1089329777.977486</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2004771718.096586</v>
+        <v>2142743446.374882</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1076268954527954</v>
+        <v>0.1131243607238743</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03690495345686349</v>
+        <v>0.04815092370071569</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1002385930.153766</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1988021182.98288</v>
+        <v>2079701609.364394</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1735963716261399</v>
+        <v>0.1606103751575164</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03862471567321842</v>
+        <v>0.04809443071770327</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>994010565.3713025</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2449829108.849333</v>
+        <v>1966637163.305576</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0986008954037397</v>
+        <v>0.06956224607700111</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03481327926594499</v>
+        <v>0.02920165341756517</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>114</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1224914534.590137</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4716148496.776203</v>
+        <v>4602598237.35651</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1218859469818355</v>
+        <v>0.1082676481203907</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05257787824465244</v>
+        <v>0.05040285371473093</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2358074202.725848</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1526605128.460582</v>
+        <v>1724907413.949433</v>
       </c>
       <c r="F94" t="n">
-        <v>0.134353931386251</v>
+        <v>0.1470398164173383</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04163897802732554</v>
+        <v>0.0395326718128872</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>763302500.9895278</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2371021386.079649</v>
+        <v>2975515179.135865</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1119390796953847</v>
+        <v>0.09545672300902934</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03722656517558044</v>
+        <v>0.0369802970981364</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>97</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1185510738.530848</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1631424629.715197</v>
+        <v>1617549514.735866</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1345003364087214</v>
+        <v>0.0935507125233813</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03386365134527782</v>
+        <v>0.04728131075612096</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>815712341.210622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4810097820.879983</v>
+        <v>4337325641.945518</v>
       </c>
       <c r="F97" t="n">
-        <v>0.167411341456469</v>
+        <v>0.1504025385539224</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02681285259836731</v>
+        <v>0.02426808931155557</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>128</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2405049031.99297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3157830498.140776</v>
+        <v>3060609361.71314</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1077377861462272</v>
+        <v>0.1197858285511292</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02561418219908092</v>
+        <v>0.02297550048846319</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1578915244.465163</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2886689234.280745</v>
+        <v>2102481691.661661</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1182788432414001</v>
+        <v>0.1407635182796625</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03337626893156725</v>
+        <v>0.03414627160631618</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>124</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1443344594.880614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2991694960.934439</v>
+        <v>3189000521.458088</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1466330326633486</v>
+        <v>0.1626950138534819</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02728397679923201</v>
+        <v>0.02813310081200445</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1495847470.666203</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2401132815.900924</v>
+        <v>2752650077.271631</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1798752577369109</v>
+        <v>0.1552440214059081</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04179845385786986</v>
+        <v>0.04487003719426686</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>162</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1200566417.854487</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_400.xlsx
+++ b/output/fit_clients/fit_round_400.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2053538553.308717</v>
+        <v>2316471130.016544</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07597397520744392</v>
+        <v>0.09061996586316963</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03892902922587393</v>
+        <v>0.04194826365591434</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2418561395.757347</v>
+        <v>1793868965.42532</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1344526137482168</v>
+        <v>0.1270434106906484</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04100546442429412</v>
+        <v>0.04266175344438365</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3241409752.555967</v>
+        <v>3868876932.488644</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1359284373046372</v>
+        <v>0.1034805954132653</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02429839990338803</v>
+        <v>0.02386136423703401</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3872605154.649394</v>
+        <v>3175666447.52697</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07935296053712754</v>
+        <v>0.1106057983239207</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04403910713291392</v>
+        <v>0.03241006974020474</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1844117154.627847</v>
+        <v>2620441551.853054</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1287628719704514</v>
+        <v>0.1351885710935395</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04583447839429632</v>
+        <v>0.04467792831988969</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2484687616.962727</v>
+        <v>2484177069.841341</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09740424137662609</v>
+        <v>0.07204558812454957</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03080733525253769</v>
+        <v>0.04119849683016744</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2479377605.444279</v>
+        <v>2634032329.837664</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2116115544161516</v>
+        <v>0.2006002753628924</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02389904651748903</v>
+        <v>0.02879802477779905</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2141120769.298236</v>
+        <v>1771796095.861349</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1216681718269087</v>
+        <v>0.1630253138025853</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02889956135992195</v>
+        <v>0.0309910733716198</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5758217384.555395</v>
+        <v>5862437405.446458</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1914819890098682</v>
+        <v>0.1400614266542393</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03998444787711072</v>
+        <v>0.04414550397706332</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3171770238.406409</v>
+        <v>3028873388.529409</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1437135658860561</v>
+        <v>0.1885241475310002</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04979221938964312</v>
+        <v>0.0315486425538964</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3143576621.694545</v>
+        <v>3158403270.023027</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1573751297386779</v>
+        <v>0.1954050686558006</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0418510360921512</v>
+        <v>0.04805341691182823</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3417720089.879506</v>
+        <v>4162322579.80686</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0906280913276057</v>
+        <v>0.07951567103623426</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02781040535545021</v>
+        <v>0.02870965910540711</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3563318980.814755</v>
+        <v>2621546850.041006</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1618092445579885</v>
+        <v>0.1726260275867674</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04371530878105973</v>
+        <v>0.03772753101441578</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1218168535.046055</v>
+        <v>1325026625.242008</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07374570568599134</v>
+        <v>0.09408173622689825</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03151541306786617</v>
+        <v>0.04689902110147376</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2739710622.171104</v>
+        <v>2508598095.454081</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08292400497054048</v>
+        <v>0.1070784500937794</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04321533831695303</v>
+        <v>0.04653665221804488</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5246855725.032866</v>
+        <v>5317811641.196453</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1396603286509701</v>
+        <v>0.1687433808668316</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05293476700682739</v>
+        <v>0.03965533030803934</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2802818803.042257</v>
+        <v>2974558557.382914</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1629000333057469</v>
+        <v>0.1177665422670474</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03322266244863917</v>
+        <v>0.02378898988787586</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>974758192.4409813</v>
+        <v>1356202096.998756</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1177013314735582</v>
+        <v>0.1892423244850843</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02129135489223302</v>
+        <v>0.02023452598331016</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2674071082.455288</v>
+        <v>2753178406.499418</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1613798058119781</v>
+        <v>0.1438890650284637</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01932986242886506</v>
+        <v>0.02388168822434118</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2096227123.637696</v>
+        <v>1893398292.438811</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09192295394315778</v>
+        <v>0.06639436149851867</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03592639881265104</v>
+        <v>0.03348166928220975</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3236342224.483104</v>
+        <v>3242942173.089449</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1100913842545294</v>
+        <v>0.1185290205486775</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04841040474373066</v>
+        <v>0.0427091286154341</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1456920412.727762</v>
+        <v>1390540058.377497</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1485681277798179</v>
+        <v>0.139626276701968</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04860675906022276</v>
+        <v>0.03395593640251842</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2846873788.778364</v>
+        <v>3435008161.616499</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1342031670349507</v>
+        <v>0.09169566602593646</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0233607163900658</v>
+        <v>0.03691589554911179</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1241721499.337246</v>
+        <v>1208722199.367428</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1162384580618462</v>
+        <v>0.09626520679080744</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03034347826655557</v>
+        <v>0.0190890035548792</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1254880067.705645</v>
+        <v>1262334847.367165</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1225412257786966</v>
+        <v>0.124640070564868</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03048509255205236</v>
+        <v>0.02593828211989973</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3760717518.954001</v>
+        <v>3458628143.111206</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1355657195860028</v>
+        <v>0.1543667154397513</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01927420653144265</v>
+        <v>0.01684091897539961</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3551740396.574168</v>
+        <v>3320522360.749021</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09543217784067777</v>
+        <v>0.1388771102973404</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03495708152875518</v>
+        <v>0.0309539717185808</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5297272287.003685</v>
+        <v>5734706710.44702</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1361219563718073</v>
+        <v>0.1060670637806654</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04411506628221377</v>
+        <v>0.04544993284374408</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1784249615.398424</v>
+        <v>2012389798.039495</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08795055198854468</v>
+        <v>0.08438386868459527</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03392737490690936</v>
+        <v>0.03359017918632019</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>937290907.586912</v>
+        <v>1459930487.325407</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09520333166076339</v>
+        <v>0.08329732041187106</v>
       </c>
       <c r="G31" t="n">
-        <v>0.038676980774102</v>
+        <v>0.04647741327031083</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1465387573.521056</v>
+        <v>1626341701.61629</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08362461719249496</v>
+        <v>0.07507243956567769</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02860587167002364</v>
+        <v>0.03011196452316745</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2315749197.850205</v>
+        <v>1954704326.677866</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1454522467680712</v>
+        <v>0.1309032123787317</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0522657356042879</v>
+        <v>0.04242937509343084</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1144158294.646841</v>
+        <v>1219853992.76663</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09185975694694608</v>
+        <v>0.09179619668281218</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02424458880884378</v>
+        <v>0.01859495019554951</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>982337892.4316814</v>
+        <v>1137923143.847916</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09211688080230468</v>
+        <v>0.09054445903392457</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03644192277986689</v>
+        <v>0.03686613824275484</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2615579600.828308</v>
+        <v>2745152463.981183</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1534214697027194</v>
+        <v>0.1090458613323929</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02348680607562472</v>
+        <v>0.01894224093678016</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2456989393.284176</v>
+        <v>2178856610.727875</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09417346447029547</v>
+        <v>0.1122540218634029</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03170634328214419</v>
+        <v>0.02895134055562125</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1610315105.288015</v>
+        <v>2080736304.561532</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09890318505073832</v>
+        <v>0.1032119745308893</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03467018183848051</v>
+        <v>0.02500604620330083</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1654195082.82957</v>
+        <v>1356384891.393288</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1345660335863196</v>
+        <v>0.1487501599355718</v>
       </c>
       <c r="G39" t="n">
-        <v>0.030578013036516</v>
+        <v>0.0209129616788951</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1309487770.148918</v>
+        <v>1343452656.591236</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1294969342185869</v>
+        <v>0.1465052258563322</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05827906286177306</v>
+        <v>0.03658896502077306</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2127756579.69717</v>
+        <v>2843716821.73009</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1024742688526241</v>
+        <v>0.1632634548966184</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04061096049473992</v>
+        <v>0.04653984938740031</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3156245258.311281</v>
+        <v>3435004822.323129</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09956737182509015</v>
+        <v>0.09391187154680113</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03774974674007905</v>
+        <v>0.04072445005954045</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2683833433.066256</v>
+        <v>2624331187.105807</v>
       </c>
       <c r="F43" t="n">
-        <v>0.195803400085462</v>
+        <v>0.1671163926066659</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02235064180342054</v>
+        <v>0.01846891622762954</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2136225479.935194</v>
+        <v>1744913995.229104</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06786848085521881</v>
+        <v>0.09518290360881708</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02998626260903751</v>
+        <v>0.03670054219258656</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1985207647.817487</v>
+        <v>1682154262.760934</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1431233375728342</v>
+        <v>0.1469282215033991</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03893486270155481</v>
+        <v>0.05410608649952369</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4684719269.720134</v>
+        <v>4365004024.429455</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1645217788929771</v>
+        <v>0.1199574574288485</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0574873854938884</v>
+        <v>0.05107977745385935</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4449769828.281151</v>
+        <v>3668324526.19259</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1381430878097034</v>
+        <v>0.203125438187057</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05832608506150832</v>
+        <v>0.05966389159981628</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3897812480.947629</v>
+        <v>4678704309.024515</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08295950687962203</v>
+        <v>0.09141323846374311</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03205446214120855</v>
+        <v>0.03513479121652278</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1510956138.559629</v>
+        <v>1347631946.053372</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1531653449438514</v>
+        <v>0.1595147624711469</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04332855330082219</v>
+        <v>0.03496100168695575</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3043611509.197505</v>
+        <v>3940626670.065768</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1269710697174647</v>
+        <v>0.1166335027634307</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05160414418199011</v>
+        <v>0.0343981984123065</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1443742685.224073</v>
+        <v>1051475914.363227</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1927285408258179</v>
+        <v>0.1677570550619765</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04488341384108695</v>
+        <v>0.04318155668230574</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3906624475.309897</v>
+        <v>4602652922.900405</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1164532415998874</v>
+        <v>0.09937202640048616</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05096615151964765</v>
+        <v>0.0458885752086879</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2520256482.01973</v>
+        <v>3414455876.383605</v>
       </c>
       <c r="F53" t="n">
-        <v>0.126453800801141</v>
+        <v>0.1634407114771245</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02372934005872563</v>
+        <v>0.03011540100476292</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4795609359.412621</v>
+        <v>3312112143.778447</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1293698521599213</v>
+        <v>0.1642758134190826</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03757811182740036</v>
+        <v>0.03978365432966896</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3778410976.217751</v>
+        <v>4476189525.635629</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1834905685716361</v>
+        <v>0.1587755668304226</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0199482302636317</v>
+        <v>0.02259204543830812</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1253531537.909332</v>
+        <v>1366110263.673688</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1131308791912796</v>
+        <v>0.1119564811853364</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05828300514449702</v>
+        <v>0.04080263770775747</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3319772054.878222</v>
+        <v>3092835944.373633</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1738258272865049</v>
+        <v>0.1461538190964977</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02307241376382401</v>
+        <v>0.02305137878167397</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1246800345.859376</v>
+        <v>1548172359.738143</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1764784422782685</v>
+        <v>0.1716143801903244</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03291673821704558</v>
+        <v>0.02740962206409583</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4478537428.355104</v>
+        <v>3706715205.486428</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1114320276134153</v>
+        <v>0.1222865396672436</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03287925134059638</v>
+        <v>0.03099346299327445</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2917261336.958434</v>
+        <v>2413830973.235343</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1799473853206206</v>
+        <v>0.1924868463640056</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02423653093199836</v>
+        <v>0.03328722237935558</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3328350113.969383</v>
+        <v>2307659487.625774</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1656428766003744</v>
+        <v>0.1154629172699187</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0210547681822643</v>
+        <v>0.02025414150038452</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2024155255.597646</v>
+        <v>1709813666.74277</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1559356047489122</v>
+        <v>0.1399739744661755</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03777815025380045</v>
+        <v>0.04200194814429512</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4583736968.624332</v>
+        <v>4549497075.900593</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06798248703780467</v>
+        <v>0.08662176343305239</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03915388701857264</v>
+        <v>0.03147636147188682</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3411382890.957046</v>
+        <v>4679594337.917948</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1663379014493729</v>
+        <v>0.1879857670793087</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03336779578036741</v>
+        <v>0.03011963942121295</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5006581404.52799</v>
+        <v>4498013420.264804</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1699884572565998</v>
+        <v>0.1667310070681595</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03233329977652211</v>
+        <v>0.03141252337648458</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5427406107.139651</v>
+        <v>5470967637.990486</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1389486877474895</v>
+        <v>0.1377960268655249</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04029372072211881</v>
+        <v>0.03673603961975473</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2136148821.597165</v>
+        <v>2245672189.409776</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09726060430629972</v>
+        <v>0.100065520886883</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03451101944142752</v>
+        <v>0.04021357682281725</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5085724812.860135</v>
+        <v>5157309528.094943</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1548774945583259</v>
+        <v>0.1259709653282855</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03468708207391759</v>
+        <v>0.03344811501708293</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1935653834.625662</v>
+        <v>1913968232.995606</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1779344548239795</v>
+        <v>0.1355013809035363</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04242927330976015</v>
+        <v>0.05335729575920652</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3641211252.373038</v>
+        <v>2696875906.62992</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08053434870075396</v>
+        <v>0.09199799852164958</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04504987018474944</v>
+        <v>0.03588988972099436</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4051284837.246581</v>
+        <v>3707126554.192539</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1595595043332164</v>
+        <v>0.1214593271350736</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02566760495183735</v>
+        <v>0.02083870311014234</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2074673200.757222</v>
+        <v>1476443783.048968</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08155331382917708</v>
+        <v>0.09107183187071274</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04068758368764201</v>
+        <v>0.03538188561984255</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2376592405.995054</v>
+        <v>3003621862.926075</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08595848371727545</v>
+        <v>0.1008924114624299</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04395736776732342</v>
+        <v>0.04604421084711304</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3463853534.54353</v>
+        <v>2774191594.633865</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1702419361328916</v>
+        <v>0.1838161494527324</v>
       </c>
       <c r="G74" t="n">
-        <v>0.033571418671268</v>
+        <v>0.030290311841338</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1879944095.904347</v>
+        <v>1799233072.34063</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1519825009752707</v>
+        <v>0.1209968769029237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02810321580659771</v>
+        <v>0.03161014894822606</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4863013838.414981</v>
+        <v>4152505639.232951</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1111814264135553</v>
+        <v>0.08765251999732178</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02311638954001323</v>
+        <v>0.02877097454452195</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1678153713.917161</v>
+        <v>1763664349.506845</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1333463390545682</v>
+        <v>0.1798476453952198</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02794351020941926</v>
+        <v>0.02296792222737706</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3543415220.275793</v>
+        <v>4651199589.903112</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09257593381297631</v>
+        <v>0.1026852648441196</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03599136439138719</v>
+        <v>0.04177870881658749</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1740506513.16606</v>
+        <v>1768749298.632414</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1764255555733697</v>
+        <v>0.1184959445940662</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03927668959076407</v>
+        <v>0.03518041777130233</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4485971568.468669</v>
+        <v>4134062645.550359</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09709933991251948</v>
+        <v>0.1072405610994153</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02584890325665781</v>
+        <v>0.03767541502825771</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4633450211.077089</v>
+        <v>4932398026.922158</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08494973475301085</v>
+        <v>0.1076704776441237</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0275402271149585</v>
+        <v>0.02913082421680173</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4988960060.809353</v>
+        <v>5482440799.01656</v>
       </c>
       <c r="F82" t="n">
-        <v>0.162119215069284</v>
+        <v>0.1461598588550218</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02204147472846999</v>
+        <v>0.02258886093497849</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2399846693.828674</v>
+        <v>2402795758.996766</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1340498341914056</v>
+        <v>0.1336935694333972</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04113836147472502</v>
+        <v>0.04231731996224081</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1989363100.333128</v>
+        <v>2386942196.035923</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1105649526452875</v>
+        <v>0.09150522231145648</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03840812219703905</v>
+        <v>0.03400398758209975</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2802304953.175702</v>
+        <v>3448202550.895092</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1232701895492419</v>
+        <v>0.1660312626865764</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04559443963637789</v>
+        <v>0.03524779927661528</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2505439036.507305</v>
+        <v>2005486838.227136</v>
       </c>
       <c r="F86" t="n">
-        <v>0.142095072446398</v>
+        <v>0.1516166533116107</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01983018318701096</v>
+        <v>0.01992885573821588</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1485805322.655931</v>
+        <v>1425581885.156796</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1599794231754418</v>
+        <v>0.1531145377165174</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04407789020541299</v>
+        <v>0.02814787223664327</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3714168891.472112</v>
+        <v>3366771902.935063</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1525828122601238</v>
+        <v>0.1147448309945094</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03948363061726412</v>
+        <v>0.02717208347556487</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2936920171.924478</v>
+        <v>2117774723.081157</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1125994039498953</v>
+        <v>0.1351637523080247</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03688101870391841</v>
+        <v>0.03865820442259925</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2142743446.374882</v>
+        <v>2026554776.015997</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1131243607238743</v>
+        <v>0.1172068395757746</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04815092370071569</v>
+        <v>0.04661971977274296</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2079701609.364394</v>
+        <v>1492134127.194101</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1606103751575164</v>
+        <v>0.1916247526426473</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04809443071770327</v>
+        <v>0.05094430522608412</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1966637163.305576</v>
+        <v>2092632178.809602</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06956224607700111</v>
+        <v>0.08814121332487619</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02920165341756517</v>
+        <v>0.03214936475726191</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4602598237.35651</v>
+        <v>3061404625.136102</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1082676481203907</v>
+        <v>0.1079856208957445</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05040285371473093</v>
+        <v>0.05350284245651011</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1724907413.949433</v>
+        <v>1909966096.977017</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1470398164173383</v>
+        <v>0.1065715683111976</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0395326718128872</v>
+        <v>0.04217291088852373</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2975515179.135865</v>
+        <v>3011433443.205844</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09545672300902934</v>
+        <v>0.1083810694815312</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0369802970981364</v>
+        <v>0.05218774427152408</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1617549514.735866</v>
+        <v>2337214103.082494</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0935507125233813</v>
+        <v>0.1320587760347155</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04728131075612096</v>
+        <v>0.03051916157965434</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4337325641.945518</v>
+        <v>3490036392.355698</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1504025385539224</v>
+        <v>0.1346911143876368</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02426808931155557</v>
+        <v>0.01988534780812107</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3060609361.71314</v>
+        <v>2517489881.906821</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1197858285511292</v>
+        <v>0.08334103615222285</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02297550048846319</v>
+        <v>0.02952680136730326</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2102481691.661661</v>
+        <v>2115296383.353676</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1407635182796625</v>
+        <v>0.1429724410063934</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03414627160631618</v>
+        <v>0.03197753135019474</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3189000521.458088</v>
+        <v>2981526144.242742</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1626950138534819</v>
+        <v>0.1258171760418488</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02813310081200445</v>
+        <v>0.02104085326058499</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2752650077.271631</v>
+        <v>3410706359.919038</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1552440214059081</v>
+        <v>0.2183369908457804</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04487003719426686</v>
+        <v>0.05266441817509918</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_400.xlsx
+++ b/output/fit_clients/fit_round_400.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2316471130.016544</v>
+        <v>2487694884.537244</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09061996586316963</v>
+        <v>0.0717900551648101</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04194826365591434</v>
+        <v>0.0455026907608094</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1793868965.42532</v>
+        <v>2424652331.516762</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1270434106906484</v>
+        <v>0.1246980453913341</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04266175344438365</v>
+        <v>0.04779028579556588</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3868876932.488644</v>
+        <v>3851162968.515668</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1034805954132653</v>
+        <v>0.1620747070460443</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02386136423703401</v>
+        <v>0.03817165750798801</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>204</v>
+      </c>
+      <c r="J4" t="n">
+        <v>399</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45.95784079185854</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3175666447.52697</v>
+        <v>3364209321.470766</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1106057983239207</v>
+        <v>0.09676264856247674</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03241006974020474</v>
+        <v>0.049351763874567</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>164</v>
+      </c>
+      <c r="J5" t="n">
+        <v>399</v>
+      </c>
+      <c r="K5" t="n">
+        <v>43.86068445021485</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2620441551.853054</v>
+        <v>2089252188.288233</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1351885710935395</v>
+        <v>0.1114555657283099</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04467792831988969</v>
+        <v>0.04917666809099983</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2484177069.841341</v>
+        <v>2487428336.778265</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07204558812454957</v>
+        <v>0.08493967666700995</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04119849683016744</v>
+        <v>0.04952470776566786</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2634032329.837664</v>
+        <v>3225970603.032356</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2006002753628924</v>
+        <v>0.1806861127335966</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02879802477779905</v>
+        <v>0.02273525111690922</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>109</v>
+      </c>
+      <c r="J8" t="n">
+        <v>398</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1771796095.861349</v>
+        <v>2211458903.408926</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1630253138025853</v>
+        <v>0.1937676037676798</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0309910733716198</v>
+        <v>0.03389958907333072</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5862437405.446458</v>
+        <v>5488280479.17551</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1400614266542393</v>
+        <v>0.1644953854432097</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04414550397706332</v>
+        <v>0.03978281847138078</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>324</v>
+      </c>
+      <c r="J10" t="n">
+        <v>399</v>
+      </c>
+      <c r="K10" t="n">
+        <v>44.97503623516695</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3028873388.529409</v>
+        <v>4143048844.137185</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1885241475310002</v>
+        <v>0.1709139081521311</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0315486425538964</v>
+        <v>0.03594243581748276</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>168</v>
+      </c>
+      <c r="J11" t="n">
+        <v>400</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3158403270.023027</v>
+        <v>3082372992.156114</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1954050686558006</v>
+        <v>0.132389882765299</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04805341691182823</v>
+        <v>0.03612800173100052</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4162322579.80686</v>
+        <v>4937724518.881438</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07951567103623426</v>
+        <v>0.08462306783103112</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02870965910540711</v>
+        <v>0.02004458734122097</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>209</v>
+      </c>
+      <c r="J13" t="n">
+        <v>399</v>
+      </c>
+      <c r="K13" t="n">
+        <v>46.16019987818498</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2621546850.041006</v>
+        <v>2426524833.680792</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1726260275867674</v>
+        <v>0.1162438811917102</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03772753101441578</v>
+        <v>0.04358087103662658</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1325026625.242008</v>
+        <v>1841085494.458386</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09408173622689825</v>
+        <v>0.1058496197489464</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04689902110147376</v>
+        <v>0.03398277569415533</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2508598095.454081</v>
+        <v>2019275263.583789</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1070784500937794</v>
+        <v>0.09189813171826257</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04653665221804488</v>
+        <v>0.03656118604974858</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5317811641.196453</v>
+        <v>4457475479.139487</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1687433808668316</v>
+        <v>0.1508278342633418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03965533030803934</v>
+        <v>0.04208425359634273</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>193</v>
+      </c>
+      <c r="J17" t="n">
+        <v>400</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2974558557.382914</v>
+        <v>3117748250.055788</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1177665422670474</v>
+        <v>0.177174856820726</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02378898988787586</v>
+        <v>0.02336601925766568</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>98</v>
+      </c>
+      <c r="J18" t="n">
+        <v>398</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1356202096.998756</v>
+        <v>1117096810.458912</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1892423244850843</v>
+        <v>0.1909640823355993</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02023452598331016</v>
+        <v>0.02741783306600571</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2753178406.499418</v>
+        <v>2292978745.474813</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1438890650284637</v>
+        <v>0.1046412802876648</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02388168822434118</v>
+        <v>0.02725171011312574</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1893398292.438811</v>
+        <v>2388351396.383367</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06639436149851867</v>
+        <v>0.07527667016818368</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03348166928220975</v>
+        <v>0.038066717331317</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1209,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3242942173.089449</v>
+        <v>2891427660.684536</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1185290205486775</v>
+        <v>0.1416742326803452</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0427091286154341</v>
+        <v>0.05371781600845166</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>111</v>
+      </c>
+      <c r="J22" t="n">
+        <v>399</v>
+      </c>
+      <c r="K22" t="n">
+        <v>33.9666221607044</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1390540058.377497</v>
+        <v>1035172293.766804</v>
       </c>
       <c r="F23" t="n">
-        <v>0.139626276701968</v>
+        <v>0.1321912700516114</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03395593640251842</v>
+        <v>0.04706703211286613</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3435008161.616499</v>
+        <v>3429421381.717832</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09169566602593646</v>
+        <v>0.1293495868474824</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03691589554911179</v>
+        <v>0.03677853582633264</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>125</v>
+      </c>
+      <c r="J24" t="n">
+        <v>400</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1208722199.367428</v>
+        <v>977354627.0638918</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09626520679080744</v>
+        <v>0.09094310449046455</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0190890035548792</v>
+        <v>0.02645921526192018</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1262334847.367165</v>
+        <v>977481242.6637883</v>
       </c>
       <c r="F26" t="n">
-        <v>0.124640070564868</v>
+        <v>0.1030019901753041</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02593828211989973</v>
+        <v>0.03694053848764239</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3458628143.111206</v>
+        <v>4242757727.0563</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1543667154397513</v>
+        <v>0.1570299258682624</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01684091897539961</v>
+        <v>0.01686522856326006</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>167</v>
+      </c>
+      <c r="J27" t="n">
+        <v>400</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3320522360.749021</v>
+        <v>3171694067.435253</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1388771102973404</v>
+        <v>0.1485601828123622</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0309539717185808</v>
+        <v>0.0404743669194617</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>97</v>
+      </c>
+      <c r="J28" t="n">
+        <v>397</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5734706710.44702</v>
+        <v>4034847632.048027</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1060670637806654</v>
+        <v>0.1415666339730977</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04544993284374408</v>
+        <v>0.0316705592834191</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>339</v>
+      </c>
+      <c r="J29" t="n">
+        <v>400</v>
+      </c>
+      <c r="K29" t="n">
+        <v>47.05200324193542</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2012389798.039495</v>
+        <v>1819896522.210317</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08438386868459527</v>
+        <v>0.1385171716566303</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03359017918632019</v>
+        <v>0.02469630978513282</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1459930487.325407</v>
+        <v>998729109.3867977</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08329732041187106</v>
+        <v>0.1081992612110821</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04647741327031083</v>
+        <v>0.04312818670651146</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1626341701.61629</v>
+        <v>1755256794.263441</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07507243956567769</v>
+        <v>0.08666184889973978</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03011196452316745</v>
+        <v>0.03525782477716646</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1954704326.677866</v>
+        <v>2640804965.594855</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1309032123787317</v>
+        <v>0.1522424036862982</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04242937509343084</v>
+        <v>0.05520235808872444</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1219853992.76663</v>
+        <v>1255154824.752877</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09179619668281218</v>
+        <v>0.07940392032894891</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01859495019554951</v>
+        <v>0.01714038414240998</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1137923143.847916</v>
+        <v>1065038419.89639</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09054445903392457</v>
+        <v>0.09235189670421828</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03686613824275484</v>
+        <v>0.03676455286582649</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2745152463.981183</v>
+        <v>3087840440.194131</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1090458613323929</v>
+        <v>0.1206218212898473</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01894224093678016</v>
+        <v>0.0223839078180375</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2178856610.727875</v>
+        <v>2047154910.661896</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1122540218634029</v>
+        <v>0.09639280322836143</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02895134055562125</v>
+        <v>0.03140696658197917</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2080736304.561532</v>
+        <v>1368627676.185839</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1032119745308893</v>
+        <v>0.1189102629953597</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02500604620330083</v>
+        <v>0.03661993969626268</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1356384891.393288</v>
+        <v>1917560586.963095</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1487501599355718</v>
+        <v>0.12864227544407</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0209129616788951</v>
+        <v>0.0205677145024652</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1343452656.591236</v>
+        <v>1621522402.13207</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1465052258563322</v>
+        <v>0.1049377769841886</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03658896502077306</v>
+        <v>0.04892367039987688</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2843716821.73009</v>
+        <v>2743212817.755781</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1632634548966184</v>
+        <v>0.1607804808073755</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04653984938740031</v>
+        <v>0.03746824044923653</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3435004822.323129</v>
+        <v>2968994224.089461</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09391187154680113</v>
+        <v>0.1045748144455687</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04072445005954045</v>
+        <v>0.03954087081807273</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>173</v>
+      </c>
+      <c r="J42" t="n">
+        <v>399</v>
+      </c>
+      <c r="K42" t="n">
+        <v>33.96058224231079</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2624331187.105807</v>
+        <v>2993342279.715645</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1671163926066659</v>
+        <v>0.1721284229400922</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01846891622762954</v>
+        <v>0.02552627120792148</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1744913995.229104</v>
+        <v>1423730456.659944</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09518290360881708</v>
+        <v>0.1025238765527201</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03670054219258656</v>
+        <v>0.02840268679227927</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1682154262.760934</v>
+        <v>2124083650.893715</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1469282215033991</v>
+        <v>0.1757976338571282</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05410608649952369</v>
+        <v>0.04896647837573842</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4365004024.429455</v>
+        <v>4156259049.291255</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1199574574288485</v>
+        <v>0.1359401647916667</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05107977745385935</v>
+        <v>0.0547802581603204</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>240</v>
+      </c>
+      <c r="J46" t="n">
+        <v>400</v>
+      </c>
+      <c r="K46" t="n">
+        <v>46.48761853243911</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3668324526.19259</v>
+        <v>3939979779.663411</v>
       </c>
       <c r="F47" t="n">
-        <v>0.203125438187057</v>
+        <v>0.1580566267125705</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05966389159981628</v>
+        <v>0.05699438866363377</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>179</v>
+      </c>
+      <c r="J47" t="n">
+        <v>400</v>
+      </c>
+      <c r="K47" t="n">
+        <v>47.23415664052875</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4678704309.024515</v>
+        <v>4242185639.072209</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09141323846374311</v>
+        <v>0.07857395791673658</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03513479121652278</v>
+        <v>0.03169744528051332</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>205</v>
+      </c>
+      <c r="J48" t="n">
+        <v>400</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1347631946.053372</v>
+        <v>1987181455.930947</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1595147624711469</v>
+        <v>0.161330067422698</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03496100168695575</v>
+        <v>0.0399416045274768</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3940626670.065768</v>
+        <v>3159395032.523393</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1166335027634307</v>
+        <v>0.1416541660238763</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0343981984123065</v>
+        <v>0.03707640879848607</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>136</v>
+      </c>
+      <c r="J50" t="n">
+        <v>398</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1051475914.363227</v>
+        <v>1031241317.2575</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1677570550619765</v>
+        <v>0.1279063054540401</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04318155668230574</v>
+        <v>0.03332316284088437</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4602652922.900405</v>
+        <v>3743571180.425391</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09937202640048616</v>
+        <v>0.125232000820214</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0458885752086879</v>
+        <v>0.04437483207356178</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>232</v>
+      </c>
+      <c r="J52" t="n">
+        <v>400</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3414455876.383605</v>
+        <v>2344622010.432318</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1634407114771245</v>
+        <v>0.137434653389115</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03011540100476292</v>
+        <v>0.02834539937367635</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3312112143.778447</v>
+        <v>4012204368.966588</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1642758134190826</v>
+        <v>0.1651465960675346</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03978365432966896</v>
+        <v>0.04049045755886101</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>214</v>
+      </c>
+      <c r="J54" t="n">
+        <v>399</v>
+      </c>
+      <c r="K54" t="n">
+        <v>45.92817128752586</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4476189525.635629</v>
+        <v>3368229138.676698</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1587755668304226</v>
+        <v>0.1854004176916599</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02259204543830812</v>
+        <v>0.03080648428026449</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>193</v>
+      </c>
+      <c r="J55" t="n">
+        <v>399</v>
+      </c>
+      <c r="K55" t="n">
+        <v>39.52215217227704</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1366110263.673688</v>
+        <v>1534954961.986835</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1119564811853364</v>
+        <v>0.1449814073615687</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04080263770775747</v>
+        <v>0.04583194908527473</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3092835944.373633</v>
+        <v>2942988022.8497</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1461538190964977</v>
+        <v>0.1502605562310872</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02305137878167397</v>
+        <v>0.01867589023243104</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>171</v>
+      </c>
+      <c r="J57" t="n">
+        <v>399</v>
+      </c>
+      <c r="K57" t="n">
+        <v>27.43552169627129</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1548172359.738143</v>
+        <v>1734162670.221255</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1716143801903244</v>
+        <v>0.1533113870602513</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02740962206409583</v>
+        <v>0.03921147136412543</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3706715205.486428</v>
+        <v>3859033640.896523</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1222865396672436</v>
+        <v>0.1285975179522638</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03099346299327445</v>
+        <v>0.03689808411487208</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>195</v>
+      </c>
+      <c r="J59" t="n">
+        <v>400</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2413830973.235343</v>
+        <v>2335644669.636865</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1924868463640056</v>
+        <v>0.1876510784456503</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03328722237935558</v>
+        <v>0.02627461461904716</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>73</v>
+      </c>
+      <c r="J60" t="n">
+        <v>397</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2307659487.625774</v>
+        <v>2280485756.318565</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1154629172699187</v>
+        <v>0.1679166483971299</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02025414150038452</v>
+        <v>0.02406798087943366</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1709813666.74277</v>
+        <v>1858629380.355358</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1399739744661755</v>
+        <v>0.1303700837784071</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04200194814429512</v>
+        <v>0.04144799936550348</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4549497075.900593</v>
+        <v>4698575318.008968</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08662176343305239</v>
+        <v>0.07131740219024484</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03147636147188682</v>
+        <v>0.04210207333962776</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>199</v>
+      </c>
+      <c r="J63" t="n">
+        <v>399</v>
+      </c>
+      <c r="K63" t="n">
+        <v>45.08960500437721</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4679594337.917948</v>
+        <v>3445659381.195569</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1879857670793087</v>
+        <v>0.1905580764817975</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03011963942121295</v>
+        <v>0.02815293066347266</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>200</v>
+      </c>
+      <c r="J64" t="n">
+        <v>399</v>
+      </c>
+      <c r="K64" t="n">
+        <v>36.23200465305388</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4498013420.264804</v>
+        <v>4170732634.412156</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1667310070681595</v>
+        <v>0.1725696145426159</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03141252337648458</v>
+        <v>0.02945034469427292</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>296</v>
+      </c>
+      <c r="J65" t="n">
+        <v>400</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5470967637.990486</v>
+        <v>3905069846.290196</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1377960268655249</v>
+        <v>0.1598524749834268</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03673603961975473</v>
+        <v>0.03472060786194024</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>198</v>
+      </c>
+      <c r="J66" t="n">
+        <v>399</v>
+      </c>
+      <c r="K66" t="n">
+        <v>45.07055956025482</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2245672189.409776</v>
+        <v>3025185938.565903</v>
       </c>
       <c r="F67" t="n">
-        <v>0.100065520886883</v>
+        <v>0.1012066801929142</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04021357682281725</v>
+        <v>0.046320527796641</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5157309528.094943</v>
+        <v>4188161013.972588</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1259709653282855</v>
+        <v>0.1017435251223603</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03344811501708293</v>
+        <v>0.03575179560783494</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>218</v>
+      </c>
+      <c r="J68" t="n">
+        <v>399</v>
+      </c>
+      <c r="K68" t="n">
+        <v>44.76410750629198</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1913968232.995606</v>
+        <v>2087883790.261492</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1355013809035363</v>
+        <v>0.1561301887300763</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05335729575920652</v>
+        <v>0.0504926058309975</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2696875906.62992</v>
+        <v>2695407864.869981</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09199799852164958</v>
+        <v>0.08177715254145675</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03588988972099436</v>
+        <v>0.03020860558313718</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3707126554.192539</v>
+        <v>3989242680.094976</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1214593271350736</v>
+        <v>0.1854162618757968</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02083870311014234</v>
+        <v>0.02809432301318487</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>283</v>
+      </c>
+      <c r="J71" t="n">
+        <v>400</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1476443783.048968</v>
+        <v>1687564756.407385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09107183187071274</v>
+        <v>0.08778312643309802</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03538188561984255</v>
+        <v>0.04559881202222606</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3003621862.926075</v>
+        <v>2826730902.580354</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1008924114624299</v>
+        <v>0.09030225213608453</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04604421084711304</v>
+        <v>0.04159030556064101</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2774191594.633865</v>
+        <v>3391954590.178277</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1838161494527324</v>
+        <v>0.1255733393616259</v>
       </c>
       <c r="G74" t="n">
-        <v>0.030290311841338</v>
+        <v>0.03435927198639107</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>113</v>
+      </c>
+      <c r="J74" t="n">
+        <v>393</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1799233072.34063</v>
+        <v>2234671697.15023</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1209968769029237</v>
+        <v>0.1072507183232349</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03161014894822606</v>
+        <v>0.03720862391292424</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4152505639.232951</v>
+        <v>5035329589.106741</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08765251999732178</v>
+        <v>0.1112030080929062</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02877097454452195</v>
+        <v>0.02849476274294298</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>189</v>
+      </c>
+      <c r="J76" t="n">
+        <v>400</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1763664349.506845</v>
+        <v>2120784913.55786</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1798476453952198</v>
+        <v>0.1511546510851702</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02296792222737706</v>
+        <v>0.03019833475812131</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4651199589.903112</v>
+        <v>3334881641.578512</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1026852648441196</v>
+        <v>0.1111573549099171</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04177870881658749</v>
+        <v>0.04934463908883916</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>199</v>
+      </c>
+      <c r="J78" t="n">
+        <v>399</v>
+      </c>
+      <c r="K78" t="n">
+        <v>35.43666163495726</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1768749298.632414</v>
+        <v>1283003464.726748</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1184959445940662</v>
+        <v>0.1628051888168859</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03518041777130233</v>
+        <v>0.03400421264592472</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4134062645.550359</v>
+        <v>3744652117.324259</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1072405610994153</v>
+        <v>0.1078997775809224</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03767541502825771</v>
+        <v>0.03539653643844151</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>195</v>
+      </c>
+      <c r="J80" t="n">
+        <v>400</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4932398026.922158</v>
+        <v>3367141801.523416</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1076704776441237</v>
+        <v>0.1073174255462548</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02913082421680173</v>
+        <v>0.02055916258358141</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>186</v>
+      </c>
+      <c r="J81" t="n">
+        <v>398</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5482440799.01656</v>
+        <v>4603502463.25803</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1461598588550218</v>
+        <v>0.1668902445414962</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02258886093497849</v>
+        <v>0.025385704081777</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>274</v>
+      </c>
+      <c r="J82" t="n">
+        <v>400</v>
+      </c>
+      <c r="K82" t="n">
+        <v>48.83056934056507</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2402795758.996766</v>
+        <v>1627373746.941128</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1336935694333972</v>
+        <v>0.1224023670945958</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04231731996224081</v>
+        <v>0.03519531449251113</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2386942196.035923</v>
+        <v>1818509680.260897</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09150522231145648</v>
+        <v>0.08495547043712655</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03400398758209975</v>
+        <v>0.03543384420088106</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3448202550.895092</v>
+        <v>3575718631.752292</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1660312626865764</v>
+        <v>0.1505018499197267</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03524779927661528</v>
+        <v>0.04061044057885049</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>400</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2005486838.227136</v>
+        <v>2631840915.606822</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1516166533116107</v>
+        <v>0.1172560819785129</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01992885573821588</v>
+        <v>0.02142855741665366</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1425581885.156796</v>
+        <v>1154360000.117842</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1531145377165174</v>
+        <v>0.1511888191287165</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02814787223664327</v>
+        <v>0.03906233583003008</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3366771902.935063</v>
+        <v>2878490777.355841</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1147448309945094</v>
+        <v>0.1425178019236145</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02717208347556487</v>
+        <v>0.03349517409471189</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2117774723.081157</v>
+        <v>2880258381.547484</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1351637523080247</v>
+        <v>0.1446933948698123</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03865820442259925</v>
+        <v>0.04128461997914588</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2026554776.015997</v>
+        <v>1827110572.046233</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1172068395757746</v>
+        <v>0.1167862772201059</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04661971977274296</v>
+        <v>0.05479304193044326</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1492134127.194101</v>
+        <v>1336151361.440017</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1916247526426473</v>
+        <v>0.1578611256373404</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05094430522608412</v>
+        <v>0.05059439048315104</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2092632178.809602</v>
+        <v>1950407555.84817</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08814121332487619</v>
+        <v>0.0775417600543841</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03214936475726191</v>
+        <v>0.0342573015901726</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3061404625.136102</v>
+        <v>4400453979.862744</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1079856208957445</v>
+        <v>0.1214781867380941</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05350284245651011</v>
+        <v>0.04553953665339501</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>191</v>
+      </c>
+      <c r="J93" t="n">
+        <v>400</v>
+      </c>
+      <c r="K93" t="n">
+        <v>46.66512364398075</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1909966096.977017</v>
+        <v>2418462854.936565</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1065715683111976</v>
+        <v>0.1361080872400495</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04217291088852373</v>
+        <v>0.03073681210504144</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3011433443.205844</v>
+        <v>2116213109.138481</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1083810694815312</v>
+        <v>0.1166254735432321</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05218774427152408</v>
+        <v>0.04612256781287947</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2337214103.082494</v>
+        <v>1779789062.715079</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1320587760347155</v>
+        <v>0.08558496147702623</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03051916157965434</v>
+        <v>0.03449281288833825</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3490036392.355698</v>
+        <v>4967983768.303217</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1346911143876368</v>
+        <v>0.1633754031773642</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01988534780812107</v>
+        <v>0.0208042855324208</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>208</v>
+      </c>
+      <c r="J97" t="n">
+        <v>400</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2517489881.906821</v>
+        <v>3225147760.360342</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08334103615222285</v>
+        <v>0.1295382111690602</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02952680136730326</v>
+        <v>0.03097230484230911</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>103</v>
+      </c>
+      <c r="J98" t="n">
+        <v>399</v>
+      </c>
+      <c r="K98" t="n">
+        <v>39.45237338634441</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2115296383.353676</v>
+        <v>2328111056.597815</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1429724410063934</v>
+        <v>0.1183836622293479</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03197753135019474</v>
+        <v>0.02458846643236848</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2981526144.242742</v>
+        <v>3557808833.843849</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1258171760418488</v>
+        <v>0.1739640704871017</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02104085326058499</v>
+        <v>0.01841224731984559</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>185</v>
+      </c>
+      <c r="J100" t="n">
+        <v>400</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3410706359.919038</v>
+        <v>3438221351.445512</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2183369908457804</v>
+        <v>0.1632058099092289</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05266441817509918</v>
+        <v>0.05037960431467454</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>37</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
